--- a/notefile/数据结构/数据结构与算法图.xlsx
+++ b/notefile/数据结构/数据结构与算法图.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chl/data/person/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chl/data/person/learn_note/note/notefile/数据结构/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="两个有环单链表相交-入环点不同" sheetId="4" r:id="rId1"/>
     <sheet name="两个有环单链表相交-入环点相同" sheetId="3" r:id="rId2"/>
     <sheet name="两个无环单链表相交" sheetId="1" r:id="rId3"/>
     <sheet name="带环单链表" sheetId="2" r:id="rId4"/>
+    <sheet name="树" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -183,21 +184,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1990,6 +1992,293 @@
         <a:xfrm>
           <a:off x="4381500" y="2438400"/>
           <a:ext cx="0" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5880100" y="596900"/>
+          <a:ext cx="1193800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4699000" y="1231900"/>
+          <a:ext cx="825500" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="1206500"/>
+          <a:ext cx="762000" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直线箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6261100" y="1816100"/>
+          <a:ext cx="431800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="1816100"/>
+          <a:ext cx="469900" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直线箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7073900" y="2425700"/>
+          <a:ext cx="393700" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2296,48 +2585,48 @@
       <c r="I2" s="1"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.2">
       <c r="I21" s="4" t="s">
@@ -2352,7 +2641,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="25" spans="7:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="G25" s="5"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="35" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L35" t="s">
@@ -2361,16 +2650,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2396,52 +2685,52 @@
       <c r="I2" s="1"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19" s="4" t="s">
@@ -2456,9 +2745,9 @@
       <c r="H20" s="4"/>
     </row>
     <row r="23" spans="6:10" ht="23" x14ac:dyDescent="0.25">
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="35" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M35" t="s">
@@ -2467,16 +2756,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J15:J16"/>
     <mergeCell ref="L15:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2503,40 +2792,40 @@
       <c r="I2" s="1"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F19" s="4" t="s">
@@ -2551,7 +2840,7 @@
       <c r="H20" s="4"/>
     </row>
     <row r="23" spans="6:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="H23" s="5"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="35" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M35" t="s">
@@ -2560,15 +2849,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2581,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2593,55 +2882,55 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="19" spans="7:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="G19" s="5"/>
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2660,4 +2949,39 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="L3:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="S3" s="6"/>
+    </row>
+    <row r="6" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="O6" s="6"/>
+    </row>
+    <row r="9" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="12" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="P12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="15" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="S15" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>